--- a/public/pdf/excel_format_penggajian.xlsx
+++ b/public/pdf/excel_format_penggajian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SistemGaji\public\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BDD8C6-9079-44B7-9763-BB95E703F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB6F9AD-3E15-450C-AF37-FE478691CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO111"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
     <col min="20" max="20" width="30.6640625" customWidth="1"/>
     <col min="21" max="21" width="30.77734375" style="6" customWidth="1"/>
     <col min="22" max="23" width="25.77734375" customWidth="1"/>
-    <col min="24" max="24" width="45.44140625" customWidth="1"/>
+    <col min="24" max="24" width="37.21875" customWidth="1"/>
     <col min="25" max="30" width="25.77734375" customWidth="1"/>
     <col min="31" max="31" width="34.6640625" customWidth="1"/>
     <col min="32" max="35" width="25.77734375" customWidth="1"/>
@@ -676,19 +676,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="3">
-        <v>2000000</v>
+        <v>2900000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>400000</v>
       </c>
       <c r="D2" s="3">
         <v>300000</v>
       </c>
       <c r="E2" s="3">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="F2" s="3">
         <v>200000</v>
       </c>
       <c r="G2" s="3">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="H2" s="3">
         <v>35</v>
@@ -697,17 +700,17 @@
         <v>72420</v>
       </c>
       <c r="J2" s="3">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(B2:J2)</f>
-        <v>3052455</v>
+        <v>4972455</v>
       </c>
       <c r="L2" s="3">
-        <v>164328</v>
+        <v>165000</v>
       </c>
       <c r="M2" s="3">
-        <v>74727</v>
+        <v>74500</v>
       </c>
       <c r="N2" s="3">
         <v>300000</v>
@@ -717,21 +720,21 @@
       </c>
       <c r="P2" s="3">
         <f>SUM(L2:O2)</f>
-        <v>789055</v>
+        <v>789500</v>
       </c>
       <c r="Q2" s="3">
         <f>K2-P2</f>
-        <v>2263400</v>
+        <v>4182955</v>
       </c>
       <c r="R2" s="3">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="S2" s="3">
-        <v>550000</v>
+        <v>200000</v>
       </c>
       <c r="T2" s="3">
         <f>SUM(Q2:S2)</f>
-        <v>7313400</v>
+        <v>8382955</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="3">
@@ -741,59 +744,56 @@
         <v>129000</v>
       </c>
       <c r="X2" s="3">
-        <v>150000</v>
+        <f>R2-W2</f>
+        <v>3871000</v>
       </c>
       <c r="Y2" s="3">
-        <v>150000</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="AA2" s="3">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="AB2" s="3">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="AC2" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="AD2" s="3">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="AE2" s="3">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="AF2" s="3">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="AG2" s="3">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AH2" s="3">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="AI2" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="AJ2" s="3">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="AK2" s="3">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="AL2" s="3">
-        <f>SUM(V2:AK2)</f>
-        <v>2229005</v>
+        <f>SUM(W2,Y2:AK2)</f>
+        <v>504000</v>
       </c>
       <c r="AM2" s="3">
-        <v>500000</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>255000</v>
+        <f>R2-AL2</f>
+        <v>3496000</v>
       </c>
       <c r="AO2" s="3">
-        <v>3000000</v>
+        <f>SUM(AM2:AN2)</f>
+        <v>3496000</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -2072,1128 +2072,6 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="U1:U1048576"/>
